--- a/biology/Médecine/Semaine_mondiale_de_la_vaccination/Semaine_mondiale_de_la_vaccination.xlsx
+++ b/biology/Médecine/Semaine_mondiale_de_la_vaccination/Semaine_mondiale_de_la_vaccination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Semaine mondiale de la vaccination est un événement international marqué la dernière semaine d'avril chaque année et consacré à la sensibilisation à l'importance de la vaccination.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2012, plus de 180 États membres de l’OMS ont célébré pour la première fois la semaine mondiale de l’immunisation[1],[2]. Dans la même année, l’Organisation Pan Américaine de la Santé a célébré le 10e anniversaire de la semaine de la vaccination dans les Amériques et la première semaine de l’immunisation à Haïti. Auparavant, certains pays dans le monde célébraient séparément des semaines nationales de vaccination durant le mois d’avril.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2012, plus de 180 États membres de l’OMS ont célébré pour la première fois la semaine mondiale de l’immunisation,. Dans la même année, l’Organisation Pan Américaine de la Santé a célébré le 10e anniversaire de la semaine de la vaccination dans les Amériques et la première semaine de l’immunisation à Haïti. Auparavant, certains pays dans le monde célébraient séparément des semaines nationales de vaccination durant le mois d’avril.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haïti
-En 2012, 95 % des enfants haïtiens ont été visés par deux vaccins notamment le vaccin contre la Poliomyélite et le vaccin contre la Rougeole. En 2013, c’est par l’introduction du vaccin anti-rota virus, responsable de la mort de 2 200 enfants haïtiens chaque année, que le pays a célébré la semaine mondiale de la vaccination[3].
+          <t>Haïti</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, 95 % des enfants haïtiens ont été visés par deux vaccins notamment le vaccin contre la Poliomyélite et le vaccin contre la Rougeole. En 2013, c’est par l’introduction du vaccin anti-rota virus, responsable de la mort de 2 200 enfants haïtiens chaque année, que le pays a célébré la semaine mondiale de la vaccination.
 </t>
         </is>
       </c>
